--- a/biology/Médecine/Muscle_interosseux_dorsal_du_pied/Muscle_interosseux_dorsal_du_pied.xlsx
+++ b/biology/Médecine/Muscle_interosseux_dorsal_du_pied/Muscle_interosseux_dorsal_du_pied.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles interosseux dorsaux du pied (Musculi interossei dorsales pedis) sont quatre muscles du membre inférieur situés dans la région plantaire du pied et dans les espaces entre les métatarsiens au niveau de leur partie dorsale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles interosseux dorsaux du pied sont de petits muscles intrinsèques de la partie plantaire du pied. Ils unissent leurs deux métatarsiens voisins aux phalanges proximales des orteils.
 </t>
@@ -542,7 +556,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles interosseux dorsaux du pied se fixent sur les faces latérales des métatarsiens de leur espace correspondant.  Le premier muscle interosseux s'insère également sur une arcade fibreuse tendue entre les bases des deux premiers métatarsiens sous laquelle passe l'artère dorsale du pied.
 </t>
@@ -573,7 +589,9 @@
           <t>Trajets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles interosseux dorsaux du pied  se dirigent en avant en surplombant les muscles interosseux plantaires du pied.
 Les muscles interosseux dorsaux se dirigent vers l'axe médian du pied formé par le deuxième orteil en se terminant par un tendon. 
@@ -606,7 +624,9 @@
           <t>Terminaisons</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tendon du premier muscle interosseux dorsal du pied se termine sur la face médiale de la base de la phalange proximale du deuxième orteil.
 Le tendon du deuxième muscle interosseux dorsal du pied se termine sur la face latérale de la base de la phalange proximale du deuxième orteil.
@@ -640,7 +660,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles interosseux dorsaux sont innervés par le nerf plantaire latéral
 </t>
@@ -671,7 +693,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles interosseux dorsaux sont vascularisés par des rameaux de l'artère arquée du pied.
 </t>
@@ -702,7 +726,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles interosseux dorsaux sont fléchisseurs de la première phalange sur le métatarsien correspondant et écartent les troisième et quatrième orteils de l'axe du pied.
 </t>
